--- a/Data/04_Klima og ressursforvaltning/Karbonrike arealer/Inndata/telemark_planlagt_nedbygd_karbonrikt_areal_utslipp_arealformålsgruppe_20_år.xlsx
+++ b/Data/04_Klima og ressursforvaltning/Karbonrike arealer/Inndata/telemark_planlagt_nedbygd_karbonrikt_areal_utslipp_arealformålsgruppe_20_år.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Aktive\DKS\4141\53754_Kunnskap_karbonrike_areal\Leveranse_15des\Telemark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/04_Klima og ressursforvaltning/Karbonrike arealer/Inndata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17CC7F1-7361-4361-8593-4099BA6B64DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A17CC7F1-7361-4361-8593-4099BA6B64DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578D22BF-3FF8-4146-81DF-4A3CB6A82C4D}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2412" windowWidth="24276" windowHeight="15036" xr2:uid="{C504CC5E-CB83-40D6-9B74-716D13BCFB18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{C504CC5E-CB83-40D6-9B74-716D13BCFB18}"/>
   </bookViews>
   <sheets>
     <sheet name="telemark_planlagt_nedbygd_karbo" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -597,9 +597,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -979,18 +979,19 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>398126</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>933404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>112550</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>655920</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>524597</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>196783</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>309430</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>608840</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>184267</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>678141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>295048</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>168876</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>117702</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>495354</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>922409</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>921457</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>407772</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1649,6 +1650,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100066452AED51C564E81244154F306F214" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4faf91773c8b653cb3c5bfc02cc44b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aeab8c92-4fe2-4b74-b3c0-181f164372e7" xmlns:ns3="28a90a7f-539e-46e9-b8b5-332cc23d9dd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81580d99682f9a8dc19e5eb74c61ccba" ns2:_="" ns3:_="">
     <xsd:import namespace="aeab8c92-4fe2-4b74-b3c0-181f164372e7"/>
@@ -1855,15 +1865,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1876,13 +1877,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{389689E8-AAF8-4C0C-9EEB-E8FE54C288FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9138610C-BE1F-4BFC-92C7-6063A3A06D08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9138610C-BE1F-4BFC-92C7-6063A3A06D08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{389689E8-AAF8-4C0C-9EEB-E8FE54C288FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aeab8c92-4fe2-4b74-b3c0-181f164372e7"/>
+    <ds:schemaRef ds:uri="28a90a7f-539e-46e9-b8b5-332cc23d9dd7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CABED8-62BB-480F-9BF4-17167DDE9BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CABED8-62BB-480F-9BF4-17167DDE9BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aeab8c92-4fe2-4b74-b3c0-181f164372e7"/>
+    <ds:schemaRef ds:uri="28a90a7f-539e-46e9-b8b5-332cc23d9dd7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>